--- a/NFL Playoffs.xlsx
+++ b/NFL Playoffs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A4E8A8-2788-4B40-8C1B-CEA7A2B36F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C0FDD6-95C9-49F8-9A97-944F5384AA75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="147">
   <si>
     <t>Team Name</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>NO-51.35%</t>
+  </si>
+  <si>
+    <t>NEW ORLEANS SAINTS SUPER BOWL LIV CHAMPIONS</t>
   </si>
 </sst>
 </file>
@@ -799,8 +802,66 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,96 +882,8 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,8 +891,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1212,7 +1215,7 @@
   <dimension ref="A1:CB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,10 +1304,10 @@
       <c r="E4" s="4">
         <v>5</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="43">
         <v>24</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="4">
         <v>4</v>
       </c>
@@ -1339,10 +1342,10 @@
       <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="45">
         <v>13</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="6">
         <v>1</v>
       </c>
@@ -1377,10 +1380,10 @@
       <c r="E6" s="10">
         <v>32</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="47">
         <v>4</v>
       </c>
-      <c r="G6" s="55"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="10">
         <v>14</v>
       </c>
@@ -1415,10 +1418,10 @@
       <c r="E7" s="11">
         <v>6</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="49">
         <v>2</v>
       </c>
-      <c r="G7" s="57"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="11">
         <v>7</v>
       </c>
@@ -1453,10 +1456,10 @@
       <c r="E8" s="12">
         <v>10</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="51">
         <v>16</v>
       </c>
-      <c r="G8" s="59"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="12">
         <v>8</v>
       </c>
@@ -1491,10 +1494,10 @@
       <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="53">
         <v>15</v>
       </c>
-      <c r="G9" s="61"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="15">
         <v>15</v>
       </c>
@@ -1529,10 +1532,10 @@
       <c r="E10" s="16">
         <v>2</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="55">
         <v>9</v>
       </c>
-      <c r="G10" s="63"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="16">
         <v>3</v>
       </c>
@@ -1567,10 +1570,10 @@
       <c r="E11" s="14">
         <v>8</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="57">
         <v>5</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="14">
         <v>6</v>
       </c>
@@ -1605,10 +1608,10 @@
       <c r="E12" s="17">
         <v>8</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="59">
         <v>1</v>
       </c>
-      <c r="G12" s="67"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="17">
         <v>9</v>
       </c>
@@ -1643,10 +1646,10 @@
       <c r="E13" s="13">
         <v>31</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="63">
         <v>13</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="13">
         <v>13</v>
       </c>
@@ -1681,10 +1684,10 @@
       <c r="E14" s="18">
         <v>25</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="65">
         <v>17</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="18">
         <v>2</v>
       </c>
@@ -1719,10 +1722,10 @@
       <c r="E15" s="20">
         <v>15</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="67">
         <v>29</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="20">
         <v>11</v>
       </c>
@@ -1785,30 +1788,30 @@
       <c r="A22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="39" t="s">
+      <c r="F22" s="40"/>
+      <c r="G22" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="40"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="40"/>
+      <c r="M22" s="42"/>
       <c r="N22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1866,10 +1869,10 @@
       <c r="F24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="42"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="3" t="s">
         <v>72</v>
       </c>
@@ -1877,10 +1880,10 @@
         <v>87</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="M24" s="42"/>
+      <c r="M24" s="62"/>
       <c r="N24" s="3" t="s">
         <v>75</v>
       </c>
@@ -1907,10 +1910,10 @@
       <c r="F25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="42"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="3" t="s">
         <v>73</v>
       </c>
@@ -1994,313 +1997,313 @@
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="68"/>
-      <c r="AC31" s="68"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="68"/>
-      <c r="AF31" s="68"/>
-      <c r="AG31" s="68"/>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="68"/>
-      <c r="AK31" s="68"/>
-      <c r="AL31" s="68"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="68"/>
-      <c r="AO31" s="68"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
-      <c r="BD31" s="68"/>
-      <c r="BE31" s="68"/>
-      <c r="BF31" s="68"/>
-      <c r="BG31" s="68"/>
-      <c r="BH31" s="68"/>
-      <c r="BI31" s="68"/>
-      <c r="BJ31" s="68"/>
-      <c r="BK31" s="68"/>
-      <c r="BL31" s="68"/>
-      <c r="BM31" s="68"/>
-      <c r="BN31" s="68"/>
-      <c r="BO31" s="68"/>
-      <c r="BP31" s="68"/>
-      <c r="BQ31" s="68"/>
-      <c r="BR31" s="68"/>
-      <c r="BS31" s="68"/>
-      <c r="BT31" s="68"/>
-      <c r="BU31" s="68"/>
-      <c r="BV31" s="68"/>
-      <c r="BW31" s="68"/>
-      <c r="BX31" s="68"/>
-      <c r="BY31" s="68"/>
-      <c r="BZ31" s="68"/>
-      <c r="CA31" s="68"/>
-      <c r="CB31" s="68"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="39"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="39"/>
+      <c r="AQ31" s="39"/>
+      <c r="AR31" s="39"/>
+      <c r="AS31" s="39"/>
+      <c r="AT31" s="39"/>
+      <c r="AU31" s="39"/>
+      <c r="AV31" s="39"/>
+      <c r="AW31" s="39"/>
+      <c r="AX31" s="39"/>
+      <c r="AY31" s="39"/>
+      <c r="AZ31" s="39"/>
+      <c r="BA31" s="39"/>
+      <c r="BB31" s="39"/>
+      <c r="BC31" s="39"/>
+      <c r="BD31" s="39"/>
+      <c r="BE31" s="39"/>
+      <c r="BF31" s="39"/>
+      <c r="BG31" s="39"/>
+      <c r="BH31" s="39"/>
+      <c r="BI31" s="39"/>
+      <c r="BJ31" s="39"/>
+      <c r="BK31" s="39"/>
+      <c r="BL31" s="39"/>
+      <c r="BM31" s="39"/>
+      <c r="BN31" s="39"/>
+      <c r="BO31" s="39"/>
+      <c r="BP31" s="39"/>
+      <c r="BQ31" s="39"/>
+      <c r="BR31" s="39"/>
+      <c r="BS31" s="39"/>
+      <c r="BT31" s="39"/>
+      <c r="BU31" s="39"/>
+      <c r="BV31" s="39"/>
+      <c r="BW31" s="39"/>
+      <c r="BX31" s="39"/>
+      <c r="BY31" s="39"/>
+      <c r="BZ31" s="39"/>
+      <c r="CA31" s="39"/>
+      <c r="CB31" s="39"/>
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="68"/>
-      <c r="AF32" s="68"/>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="68"/>
-      <c r="AI32" s="68"/>
-      <c r="AJ32" s="68"/>
-      <c r="AK32" s="68"/>
-      <c r="AL32" s="68"/>
-      <c r="AM32" s="68"/>
-      <c r="AN32" s="68"/>
-      <c r="AO32" s="68"/>
-      <c r="AP32" s="68"/>
-      <c r="AQ32" s="68"/>
-      <c r="AR32" s="68"/>
-      <c r="AS32" s="68"/>
-      <c r="AT32" s="68"/>
-      <c r="AU32" s="68"/>
-      <c r="AV32" s="68"/>
-      <c r="AW32" s="68"/>
-      <c r="AX32" s="68"/>
-      <c r="AY32" s="68"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="68"/>
-      <c r="BC32" s="68"/>
-      <c r="BD32" s="68"/>
-      <c r="BE32" s="68"/>
-      <c r="BF32" s="68"/>
-      <c r="BG32" s="68"/>
-      <c r="BH32" s="68"/>
-      <c r="BI32" s="68"/>
-      <c r="BJ32" s="68"/>
-      <c r="BK32" s="68"/>
-      <c r="BL32" s="68"/>
-      <c r="BM32" s="68"/>
-      <c r="BN32" s="68"/>
-      <c r="BO32" s="68"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
+      <c r="AT32" s="39"/>
+      <c r="AU32" s="39"/>
+      <c r="AV32" s="39"/>
+      <c r="AW32" s="39"/>
+      <c r="AX32" s="39"/>
+      <c r="AY32" s="39"/>
+      <c r="AZ32" s="39"/>
+      <c r="BA32" s="39"/>
+      <c r="BB32" s="39"/>
+      <c r="BC32" s="39"/>
+      <c r="BD32" s="39"/>
+      <c r="BE32" s="39"/>
+      <c r="BF32" s="39"/>
+      <c r="BG32" s="39"/>
+      <c r="BH32" s="39"/>
+      <c r="BI32" s="39"/>
+      <c r="BJ32" s="39"/>
+      <c r="BK32" s="39"/>
+      <c r="BL32" s="39"/>
+      <c r="BM32" s="39"/>
+      <c r="BN32" s="39"/>
+      <c r="BO32" s="39"/>
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="68"/>
-      <c r="AJ33" s="68"/>
-      <c r="AK33" s="68"/>
-      <c r="AL33" s="68"/>
-      <c r="AM33" s="68"/>
-      <c r="AN33" s="68"/>
-      <c r="AO33" s="68"/>
-      <c r="AP33" s="68"/>
-      <c r="AQ33" s="68"/>
-      <c r="AR33" s="68"/>
-      <c r="AS33" s="68"/>
-      <c r="AT33" s="68"/>
-      <c r="AU33" s="68"/>
-      <c r="AV33" s="68"/>
-      <c r="AW33" s="68"/>
-      <c r="AX33" s="68"/>
-      <c r="AY33" s="68"/>
-      <c r="AZ33" s="68"/>
-      <c r="BA33" s="68"/>
-      <c r="BB33" s="68"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="39"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="39"/>
+      <c r="AM33" s="39"/>
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="39"/>
+      <c r="AP33" s="39"/>
+      <c r="AQ33" s="39"/>
+      <c r="AR33" s="39"/>
+      <c r="AS33" s="39"/>
+      <c r="AT33" s="39"/>
+      <c r="AU33" s="39"/>
+      <c r="AV33" s="39"/>
+      <c r="AW33" s="39"/>
+      <c r="AX33" s="39"/>
+      <c r="AY33" s="39"/>
+      <c r="AZ33" s="39"/>
+      <c r="BA33" s="39"/>
+      <c r="BB33" s="39"/>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="68"/>
-      <c r="AJ34" s="68"/>
-      <c r="AK34" s="68"/>
-      <c r="AL34" s="68"/>
-      <c r="AM34" s="68"/>
-      <c r="AN34" s="68"/>
-      <c r="AO34" s="68"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="39"/>
+      <c r="AK34" s="39"/>
+      <c r="AL34" s="39"/>
+      <c r="AM34" s="39"/>
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="39"/>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="68"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -2309,12 +2312,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A31:CB31"/>
-    <mergeCell ref="A32:BO32"/>
-    <mergeCell ref="A33:BB33"/>
-    <mergeCell ref="A34:AO34"/>
-    <mergeCell ref="A35:AB35"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
@@ -2327,13 +2331,12 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A31:CB31"/>
+    <mergeCell ref="A32:BO32"/>
+    <mergeCell ref="A33:BB33"/>
+    <mergeCell ref="A34:AO34"/>
+    <mergeCell ref="A35:AB35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" xr:uid="{CCC2ADBA-6D41-4032-BC58-0F23C0A4DC76}"/>
@@ -2350,7 +2353,7 @@
   <dimension ref="A1:CB37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,10 +2408,10 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="81"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2441,10 +2444,10 @@
       <c r="E4" s="11">
         <v>3</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="49">
         <v>3</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="11">
         <v>1</v>
       </c>
@@ -2479,10 +2482,10 @@
       <c r="E5" s="4">
         <v>28</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="43">
         <v>14</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="4">
         <v>6</v>
       </c>
@@ -2517,10 +2520,10 @@
       <c r="E6" s="6">
         <v>9</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="45">
         <v>1</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="6">
         <v>3</v>
       </c>
@@ -2555,10 +2558,10 @@
       <c r="E7" s="10">
         <v>16</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="47">
         <v>21</v>
       </c>
-      <c r="G7" s="55"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="10">
         <v>5</v>
       </c>
@@ -2593,10 +2596,10 @@
       <c r="E8" s="32">
         <v>22</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="75">
         <v>5</v>
       </c>
-      <c r="G8" s="73"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="32">
         <v>16</v>
       </c>
@@ -2631,10 +2634,10 @@
       <c r="E9" s="33">
         <v>4</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="77">
         <v>19</v>
       </c>
-      <c r="G9" s="75"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="33">
         <v>8</v>
       </c>
@@ -2666,10 +2669,10 @@
       <c r="E10" s="34">
         <v>8</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="79">
         <v>2</v>
       </c>
-      <c r="G10" s="77"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="34">
         <v>3</v>
       </c>
@@ -2701,10 +2704,10 @@
       <c r="E11" s="35">
         <v>6</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="74">
         <v>10</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="35">
         <v>13</v>
       </c>
@@ -2736,10 +2739,10 @@
       <c r="E12" s="16">
         <v>1</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="55">
         <v>4</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="16">
         <v>2</v>
       </c>
@@ -2771,10 +2774,10 @@
       <c r="E13" s="38">
         <v>15</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="81">
         <v>9</v>
       </c>
-      <c r="G13" s="79"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="38">
         <v>6</v>
       </c>
@@ -2806,10 +2809,10 @@
       <c r="E14" s="20">
         <v>14</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="67">
         <v>8</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="20">
         <v>13</v>
       </c>
@@ -2841,10 +2844,10 @@
       <c r="E15" s="37">
         <v>7</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="72">
         <v>6</v>
       </c>
-      <c r="G15" s="70"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="37">
         <v>8</v>
       </c>
@@ -2964,21 +2967,21 @@
       <c r="A23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="39" t="s">
+      <c r="F23" s="40"/>
+      <c r="G23" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="40"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="3" t="s">
         <v>36</v>
       </c>
@@ -3041,19 +3044,19 @@
         <v>134</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="42"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="3" t="s">
         <v>142</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="41" t="s">
+      <c r="L25" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="M25" s="42"/>
+      <c r="M25" s="62"/>
       <c r="N25" s="3" t="s">
         <v>145</v>
       </c>
@@ -3074,10 +3077,10 @@
         <v>135</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="42"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="3" t="s">
         <v>143</v>
       </c>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="D30" s="23"/>
     </row>
@@ -3219,23 +3222,23 @@
       <c r="CB31" s="30"/>
     </row>
     <row r="32" spans="1:80" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
       <c r="R32" s="30"/>
@@ -3451,6 +3454,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F3:G3"/>
@@ -3467,10 +3474,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" xr:uid="{170AC112-2B5D-43D2-8CA3-22954FF87599}"/>
